--- a/package/conf/excel/赋值.xlsx
+++ b/package/conf/excel/赋值.xlsx
@@ -1,144 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="赋值表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26" count="26">
   <si>
     <t>赋值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联合出品</t>
   </si>
   <si>
     <t>出品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联合出品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拍摄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宣传推广</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拍摄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拍摄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拍摄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宣传推广</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拍摄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宣传推广</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联合出品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宣传推广</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <name val="宋体"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,11 +131,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -171,15 +147,6 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -402,7 +369,7 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
@@ -469,25 +436,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A9" zoomScale="76">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.1" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="20.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.89453125" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="20.894531" style="0"/>
+    <col min="2" max="2" customWidth="1" width="20.894531" style="0"/>
+    <col min="257" max="16384" width="9" style="0" hidden="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="8:8">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="8:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -495,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8" ht="15.0">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -506,10 +474,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -517,10 +485,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -528,10 +496,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -539,10 +507,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -550,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -561,10 +529,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -572,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -583,10 +551,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -594,10 +562,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -605,10 +573,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -616,10 +584,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -627,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -638,10 +606,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -649,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -660,10 +628,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -671,10 +639,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" ht="15.0">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -682,10 +650,10 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" ht="15.0">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -693,10 +661,10 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" ht="15.0">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -704,10 +672,10 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" ht="15.0">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -715,38 +683,38 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.1" defaultColWidth="10"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.1" defaultColWidth="10"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>